--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,25 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Google Drive\Trial Data Analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView windowWidth="23040" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Format" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh1op0dk4mUPPtFCYL+yk6hI1EVmg=="/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -194,47 +184,193 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,8 +383,194 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -260,35 +582,311 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -486,19 +1084,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="62.25" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -534,218 +1132,239 @@
     <col min="55" max="55" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:55">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AW1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AY1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BA1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BB1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BC1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="J2" s="2"/>
+    <row r="2" customHeight="1" spans="1:55">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="5"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
       <c r="S2" s="5"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
       <c r="Z2" s="5"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AQ3" s="1"/>
+    <row r="3" customHeight="1" spans="38:43">
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AQ3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="250">
   <si>
     <t>CTRI Number</t>
   </si>
@@ -179,6 +179,1254 @@
   </si>
   <si>
     <t>Target Sample Size</t>
+  </si>
+  <si>
+    <t>CTRI/2021/09/036162 [Registered on: 02/09/2021] Trial Registered Prospectively</t>
+  </si>
+  <si>
+    <t>01/09/2021</t>
+  </si>
+  <si>
+    <t>No </t>
+  </si>
+  <si>
+    <t>Interventional </t>
+  </si>
+  <si>
+    <t>Homeopathy </t>
+  </si>
+  <si>
+    <t>Randomized, Parallel Group, Active Controlled Trial </t>
+  </si>
+  <si>
+    <t>A Study to Evaluate Efficacy and Safety of a Combination of Homeopathic Medications as an Add on Therapy in Patients with Severe to Critical COVID-19 Infection </t>
+  </si>
+  <si>
+    <t>A Randomized, Open label Study to Evaluate Efficacy and Safety of a Combination of Homeopathic Medications as an Add on Therapy to Standard of Care in Patients with Severe to Critical SAR-COV-2 (COVID-19) Infection </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        Secondary ID 
+        Identifier 
+            NIL 
+            NIL 
+ </t>
+  </si>
+  <si>
+    <t>Identifier </t>
+  </si>
+  <si>
+    <t>NIL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            Name 
+            Prof Dr Sarman Singh 
+            Designation 
+            Director and CEO 
+            Affiliation 
+            All India Institute of Medical Sciences Bhopal 
+            Address 
+            Department of Clinical Microbiology, 
+All India Institute of Medical Sciences, BhopalBhopalMADHYA PRADESH462020India 
+            Phone 
+            Fax 
+            Email 
+            director@aiimsbhopal.edu.in  
+     </t>
+  </si>
+  <si>
+    <t>Prof Dr Sarman Singh </t>
+  </si>
+  <si>
+    <t>Director and CEO </t>
+  </si>
+  <si>
+    <t>All India Institute of Medical Sciences Bhopal </t>
+  </si>
+  <si>
+    <t>Department of Clinical Microbiology, 
+All India Institute of Medical Sciences, BhopalBhopalMADHYA PRADESH462020India </t>
+  </si>
+  <si>
+    <t>  </t>
+  </si>
+  <si>
+    <t>director@aiimsbhopal.edu.in  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            Name 
+             Dr Abhishek Singhai 
+            Designation 
+             Assistant Professor 
+            Affiliation 
+            All India Institute of Medical Sciences Bhopal 
+            Address 
+            Department of General medicine, All India Institute of Medical Sciences BhopalBhopalMADHYA PRADESH462020India 
+            Phone 
+            Fax 
+            Email 
+            abhishek.genmed@aiimsbhopal.edu.in  
+     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dr Abhishek Singhai </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assistant Professor </t>
+  </si>
+  <si>
+    <t>Department of General medicine, All India Institute of Medical Sciences BhopalBhopalMADHYA PRADESH462020India </t>
+  </si>
+  <si>
+    <t>abhishek.genmed@aiimsbhopal.edu.in  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            Name 
+            Dr Ashish Kumar Dixit 
+            Designation 
+            Medical Officer (Homoeopathy) 
+            Affiliation 
+            All India Institute of Medical Sciences Bhopal 
+            Address 
+            Department of AYUSH, All India Institute of Medical Sciences BhopalBhopalMADHYA PRADESH462020India 
+            Phone 
+            Fax 
+            Email 
+            ashish.ayush@aiimsbhopal.edu.in  
+     </t>
+  </si>
+  <si>
+    <t>Dr Ashish Kumar Dixit </t>
+  </si>
+  <si>
+    <t>Medical Officer (Homoeopathy) </t>
+  </si>
+  <si>
+    <t>Department of AYUSH, All India Institute of Medical Sciences BhopalBhopalMADHYA PRADESH462020India </t>
+  </si>
+  <si>
+    <t>ashish.ayush@aiimsbhopal.edu.in  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            Dr Manoj Kuriakose, Hyderabad and All India Institute of Medical Sciences Bhopal 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            Name 
+            Dr Manoj Kuriakose 
+            Address 
+            Avenue 6, Behind Care Hospital, Banjara Hills, Hyderabad 500034  
+            Type of Sponsor 
+                        Other [Self] 
+     </t>
+  </si>
+  <si>
+    <t>Dr Manoj Kuriakose </t>
+  </si>
+  <si>
+    <t>Avenue 6, Behind Care Hospital, Banjara Hills, Hyderabad 500034  </t>
+  </si>
+  <si>
+    <t>Other [Self] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Name 
+                Address 
+                All India Institute of Medical Sciences Bhopal 
+                All India Institute of Medical Sciences, Saket Nagar, Bhopal 462020 
+     </t>
+  </si>
+  <si>
+    <t>Address </t>
+  </si>
+  <si>
+    <t>All India Institute of Medical Sciences, Saket Nagar, Bhopal 462020 </t>
+  </si>
+  <si>
+    <t> 
+   India  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+           No of Sites = 1  
+        Name of Principal
+Investigator 
+        Name of Site 
+        Site Address 
+        Phone/Fax/Email 
+        Prof Dr Sarman Singh 
+        Departments of General Medicine and Trauma &amp; Emergency Medicine 
+        All India Institute of Medical Sciences, Saket Nagar, BhopalBhopalMADHYA PRADESH 
+        0755-2672317director@aiimsbhopal.edu.in 
+     </t>
+  </si>
+  <si>
+    <t>Name of Site </t>
+  </si>
+  <si>
+    <t>Departments of General Medicine and Trauma &amp; Emergency Medicine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+           No of Ethics Committees= 1  
+                Name of Committee 
+                Approval Status 
+                All India Institute of Medical Sciences Bhopal Institutional Human Ethics Committee 
+                Approved 
+     </t>
+  </si>
+  <si>
+    <t>Approval Status </t>
+  </si>
+  <si>
+    <t>Approved </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Status 
+                Not Applicable 
+     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Health Type 
+                Condition 
+    		Patients 
+    		(1) ICD-10 Condition: B972||Coronavirus as the cause of diseases classified elsewhere,  
+     </t>
+  </si>
+  <si>
+    <t>Condition </t>
+  </si>
+  <si>
+    <t>(1) ICD-10 Condition: B972||Coronavirus as the cause of diseases classified elsewhere,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Type 
+                Name 
+                Details 
+    Intervention 
+    Combination of homeopathic medication  
+    Combination of homeopathic medication (Arsenicum Album +Bryonia Alba + Phosphorus) 
+    Comparator Agent 
+    Standard of Care (SOC) 
+    The Standard of Care (SOC) will be given as per the recent guidelines for management of COVID 19 infection and may include 
+-	Symptomatic treatment 
+-	Oxygenation 
+-	Conservative fluid management.
+-	Corticosteroids: IV Methylprednisolone 1-2 mg/kg or Dexamethasone 0.2-0.4 mg/kg for 5-7 days
+-	Anti-IL-6 therapy such as tocilizumab
+     </t>
+  </si>
+  <si>
+    <t>Name </t>
+  </si>
+  <si>
+    <t>Combination of homeopathic medication  </t>
+  </si>
+  <si>
+    <t>Standard of Care (SOC) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Age From 
+                18.00 Year(s)
+                Age To 
+                99.00 Year(s)
+                Gender 
+                Both 
+                Details 
+                1.	Subject (or legally authorized representative) provides informed consent prior to initiation of any study procedures.
+2.	Male and female subjects greater than 18 years of age.
+3.	 Has laboratory-confirmed SARS-CoV-2 infection as determined by RT-PCR, Rapid    Antigen Test, CBNAAT or CT suggestive of Pneumonia (CO-RADS 5 grade). 
+4.	 Adult with radiological signs of pneumonia (chest x-ray, CT scan, etc.) plus one of the following. 
+a.	respiratory rate &gt;30 breaths/min, 
+b.	severe respiratory distress, 
+c.	SpO2 &lt;90% on room air.
+d.	With/without Oxygenation impairment: (Mild ARDS: 200 mmHg &lt; PaO2/FiO2 â¤ 300 mmHg (with PEEP or CPAP â¥5 cm H2O); Moderate ARDS: 100 mmHg &lt; PaO2/FiO2 â¤200 mmHg with PEEP â¥5 cm H2O); Severe ARDS: PaO2/FiO2 â¤ 100 mmHg with PEEP â¥5 cm H2O)
+5.	Patient with or without pre-existing significant co-morbidities (e.g. lung diseases, diabetes, hypertension) at the discretion of the investigator. 
+6.	Women of childbearing potential and men who partner with a woman of childbearing potential must agree to use contraceptive methods.
+7.	Willingness and ability to comply with trial and follow-up procedures.
+8.	Ability to understand the nature of the trial and give written informed consent.
+     </t>
+  </si>
+  <si>
+    <t>18.00 Year(s)</t>
+  </si>
+  <si>
+    <t>99.00 Year(s)</t>
+  </si>
+  <si>
+    <t>Both </t>
+  </si>
+  <si>
+    <t>1.	Subject (or legally authorized representative) provides informed consent prior to initiation of any study procedures.
+2.	Male and female subjects greater than 18 years of age.
+3.	 Has laboratory-confirmed SARS-CoV-2 infection as determined by RT-PCR, Rapid    Antigen Test, CBNAAT or CT suggestive of Pneumonia (CO-RADS 5 grade). 
+4.	 Adult with radiological signs of pneumonia (chest x-ray, CT scan, etc.) plus one of the following. 
+a.	respiratory rate &gt;30 breaths/min, 
+b.	severe respiratory distress, 
+c.	SpO2 &lt;90% on room air.
+d.	With/without Oxygenation impairment: (Mild ARDS: 200 mmHg &lt; PaO2/FiO2 â¤ 300 mmHg (with PEEP or CPAP â¥5 cm H2O); Moderate ARDS: 100 mmHg &lt; PaO2/FiO2 â¤200 mmHg with PEEP â¥5 cm H2O); Severe ARDS: PaO2/FiO2 â¤ 100 mmHg with PEEP â¥5 cm H2O)
+5.	Patient with or without pre-existing significant co-morbidities (e.g. lung diseases, diabetes, hypertension) at the discretion of the investigator. 
+6.	Women of childbearing potential and men who partner with a woman of childbearing potential must agree to use contraceptive methods.
+7.	Willingness and ability to comply with trial and follow-up procedures.
+8.	Ability to understand the nature of the trial and give written informed consent.
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Details 
+                1.	Patient with mild-moderate COVID-19 infection 
+2.	Patients who are allergic to arsenic album products
+3.	Severely immunocompromised patients for example patients with a history of HIV infection, patients with solid organ transplantation or bone marrow transplantation, patients receiving chemotherapy/radiotherapy, patients with primary immunodeficiency.
+4.	ALT/AST &gt; 5 times the upper limit of normal. 
+5.	Stage 4 severe chronic kidney disease or requiring dialysis (eGFR &lt;30 ml/min)
+6.	Subjects who is receiving Covid-19 directed alternative medication (e.g. Any ayurvedic, Unani or homeopathic) 
+7.	Participation of patient in other investigational clinical studies 
+8.	Pregnant or breastfeeding.
+9.	Concomitant disease or condition that could interfere with the conduct of the study, or for which the treatment could interfere with the conduct of the study, or that would in the opinion of investigator, pose an unacceptable risk to the subject in this study.
+10.	Inability or unwillingness to comply with study and/or follow-up procedures outlined in the protocol.
+11.	Psychological, familial, sociological, or geographical conditions that do not permit compliance with the protocol.
+     </t>
+  </si>
+  <si>
+    <t>1.	Patient with mild-moderate COVID-19 infection 
+2.	Patients who are allergic to arsenic album products
+3.	Severely immunocompromised patients for example patients with a history of HIV infection, patients with solid organ transplantation or bone marrow transplantation, patients receiving chemotherapy/radiotherapy, patients with primary immunodeficiency.
+4.	ALT/AST &gt; 5 times the upper limit of normal. 
+5.	Stage 4 severe chronic kidney disease or requiring dialysis (eGFR &lt;30 ml/min)
+6.	Subjects who is receiving Covid-19 directed alternative medication (e.g. Any ayurvedic, Unani or homeopathic) 
+7.	Participation of patient in other investigational clinical studies 
+8.	Pregnant or breastfeeding.
+9.	Concomitant disease or condition that could interfere with the conduct of the study, or for which the treatment could interfere with the conduct of the study, or that would in the opinion of investigator, pose an unacceptable risk to the subject in this study.
+10.	Inability or unwillingness to comply with study and/or follow-up procedures outlined in the protocol.
+11.	Psychological, familial, sociological, or geographical conditions that do not permit compliance with the protocol.
+ </t>
+  </si>
+  <si>
+    <t>Computer generated randomization </t>
+  </si>
+  <si>
+    <t>On-site computer system </t>
+  </si>
+  <si>
+    <t>Open Label </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Outcome 
+                TimePoints                 
+                â	Patient clinical status (8-point ordinal scale) at Day 15.
+1.	Death
+2.	Hospitalized, on invasive mechanical ventilation or ECMO
+3.	Hospitalized, on non-invasive ventilation or high flow oxygen devices
+4.	Hospitalized, requiring supplemental oxygen
+5.	Hospitalized, not requiring supplemental oxygen - requiring ongoing medical care (COVID-19 related or otherwise)
+6.	Hospitalized, not requiring supplemental oxygen - no longer requires ongoing medical care.
+7.	Not hospitalized, limitation on activities and/or requiring home oxygen
+8.	Not hospitalized, no limitations on activities
+                at day 15 
+     </t>
+  </si>
+  <si>
+    <t>TimePoints </t>
+  </si>
+  <si>
+    <t>at day 15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Outcome 
+                TimePoints                 
+                â	To assess the Clinical Severity:
+1.	Ordinal scale:
+-	Time to an improvement of one category from admission using an ordinal scale.
+-	Subject clinical status using ordinal scale at Days 3, 5, 8, 11, and 29.
+(Ordinal outcome will be assessed daily while hospitalized and on Days 15, 22 and 29)
+2.	 National Early Warning Score (NEWS):
+-	The time to discharge or to a NEWS of â¤ 2 and maintained for   24 hours, whichever occurs first.
+(NEWS will be assessed daily while hospitalized and on Days 15, 22 and 29)
+3.	Length of stay
+-	Length of stay (ICU or ward)in days.
+4.	Mortality in ICU patients 
+5.	 Need of admitting to ICU for patients admitted in wards.
+â	To evaluate the safety 
+-	Incidence of serious adverse events (SAEs)
+-	Incidence of Grade 3 and 4 adverse events (AEs).
+-	Discontinuation or temporary suspension of study drug (for any reason).
+                1. Subject clinical status using ordinal scale at Days 3, 5, 8, 11, and 29.
+(Ordinal outcome will be assessed daily while hospitalized and on Days 15, 22 and 29)
+2.National Early Warning Score (NEWS):
+-	The time to discharge or to a NEWS of â¤ 2 and maintained for   24 hours, whichever occurs first.
+(NEWS will be assessed daily while hospitalized and on Days 15, 22 and 29
+                âPercentage change in the biomarkers such as IL-4, IL-6, CRP, ferritin, d-dimer and troponin C 
+                on day 1,3,5,8 and 11 
+     </t>
+  </si>
+  <si>
+    <t>1. Subject clinical status using ordinal scale at Days 3, 5, 8, 11, and 29.
+(Ordinal outcome will be assessed daily while hospitalized and on Days 15, 22 and 29)
+2.National Early Warning Score (NEWS):
+-	The time to discharge or to a NEWS of â¤ 2 and maintained for   24 hours, whichever occurs first.
+(NEWS will be assessed daily while hospitalized and on Days 15, 22 and 29
+ </t>
+  </si>
+  <si>
+    <t>on day 1,3,5,8 and 11 </t>
+  </si>
+  <si>
+    <t>Total Sample Size="30"Sample Size from India="30"  
+Final Enrollment numbers achieved (Total)= "Applicable only for Completed/Terminated trials"  
+Final Enrollment numbers achieved (India)="Applicable only for Completed/Terminated trials" </t>
+  </si>
+  <si>
+    <t>Phase 2 </t>
+  </si>
+  <si>
+    <t>01/10/2021 </t>
+  </si>
+  <si>
+    <t>Applicable only for Completed/Terminated trials </t>
+  </si>
+  <si>
+    <t>Date Missing </t>
+  </si>
+  <si>
+    <t>Years="1"Months="0"Days="0" </t>
+  </si>
+  <si>
+    <t>Not Applicable </t>
+  </si>
+  <si>
+    <t>Not Yet Recruiting </t>
+  </si>
+  <si>
+    <t>Nil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        Will individual participant data (IPD) be shared publicly (including data dictionaries)?  
+                   Response - NO         
+</t>
+  </si>
+  <si>
+    <t>This is a randomized, open-label, two-arm study of the combination of homoeopathic medications as add-on therapy in patients with severe to critical COVID-19  infection being conducted at AIIMS Bhopal. The objective of this study is to assess the efficacy and safety of a homoeopathic medication combination as add-on therapy in severe COVID 19 patients, as assessed by the Clinical Severity-Ordinal scale, the National Early Warning Score (NEWS), oxygenation, mechanical ventilation, hospitalisation, and mortality. Additionally, to assess changes in inflammatory markers. </t>
+  </si>
+  <si>
+    <t>Submittted/Under Review </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Health Type 
+                Condition 
+    		Patients 
+    		(1) ICD-10 Condition: B464||Disseminated mucormycosis, (2) ICD-10 Condition: B462||Gastrointestinal mucormycosis, (3) ICD-10 Condition: B460||Pulmonary mucormycosis, (4) ICD-10 Condition: B461||Rhinocerebral mucormycosis,  
+     </t>
+  </si>
+  <si>
+    <t>(1) ICD-10 Condition: B464||Disseminated mucormycosis, (2) ICD-10 Condition: B462||Gastrointestinal mucormycosis, (3) ICD-10 Condition: B460||Pulmonary mucormycosis, (4) ICD-10 Condition: B461||Rhinocerebral mucormycosis,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Type 
+                Name 
+                Details 
+     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Age From 
+                0.00 Year(s)
+                Age To 
+                98.00 Year(s)
+                Gender 
+                Both 
+                Details 
+                - Mucormycosis patients admitted between 1st March 2021 and 31st July 2021
+- Hospitalised for Mucormycosis in the study hospital
+     </t>
+  </si>
+  <si>
+    <t>0.00 Year(s)</t>
+  </si>
+  <si>
+    <t>98.00 Year(s)</t>
+  </si>
+  <si>
+    <t>- Mucormycosis patients admitted between 1st March 2021 and 31st July 2021
+- Hospitalised for Mucormycosis in the study hospital
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Details 
+                - Mucormycosis patients who could not be contacted despite two phone calls
+- Not available for follow-up during the study period
+     </t>
+  </si>
+  <si>
+    <t>- Mucormycosis patients who could not be contacted despite two phone calls
+- Not available for follow-up during the study period
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Outcome 
+                TimePoints                 
+                Survival  
+                1, 3, 6, and 12 months 
+     </t>
+  </si>
+  <si>
+    <t>1, 3, 6, and 12 months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Outcome 
+                TimePoints                 
+                Quality of Life (EQ-5D) 
+                1, 3, 6, and 12 months 
+                Diability 
+                1, 3, 6, and 12 months 
+     </t>
+  </si>
+  <si>
+    <t>Total Sample Size="480"Sample Size from India="480"  
+Final Enrollment numbers achieved (Total)= "Applicable only for Completed/Terminated trials"  
+Final Enrollment numbers achieved (India)="Applicable only for Completed/Terminated trials" </t>
+  </si>
+  <si>
+    <t>N/A </t>
+  </si>
+  <si>
+    <t>09/09/2021 </t>
+  </si>
+  <si>
+    <t>Years="1"Months="2"Days="0" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        Will individual participant data (IPD) be shared publicly (including data dictionaries)?  
+          Response - YES                 
+        What data in particular will be shared?
+                    Response - Individual participant data that underlie the results reported in this article, after de-identiï¬cation (text, tables, ï¬gures, and appendices).          	
+        What additional supporting information will be shared? 
+          Response -  Study Protocol          Response -  Statistical Analysis Plan           Response - Informed Consent Form                     Response -  Analytic Code                             
+        Who will be able to view these files?
+                    Response - Researchers who provide a methodologically sound proposal.                    	
+        For what types of analyses will this data be available?
+                  Response - To achieve aims in the approved proposal.                   	 
+        By what mechanism will data be made available?
+          	Response - Proposals should be directed to [manickam@nie.gov.in]. 
+        For how long will this data be available start date provided 01-10-2021 and end date provided 31-10-2025?
+          Response - Immediately following publication. No end date.                              	 
+        Any URL or additional information regarding plan/policy for sharing IPD? 
+          Additional Information - NIL
+</t>
+  </si>
+  <si>
+    <t>Mucormycosis is an angio-invasive fungal infection that is characterized  by tissue infarction and necrosis. Mucormycosis is prevalent worldwide, but the  exact global burden of the disease is not clear. It is the third most common  invasive fungal infection associated significantly with high morbidity and  mortality.1 In the context of the ongoing Coronavirus disease 2019  (COVID-19) pandemic, increasing number of cases of Mucormycosis is reported  from several Indian states recently.4    Although studies have reported on the clinical picture of Mucormycosis,  the prognosis and the survival of these patients have never been reported  through cohort studies. This  multi-centric study will capture the prognosis of Mucormycosis in different  settings across the country. The ambispective cohort study design proposed will  ensure the capture of complete information from admission until 1 year post  admission. Such information may help designing clinical and public health  strategies to reduce complications and improve survival. Therefore, we  propose to characterise the natural history of Mucormycosis since diagnosis and  determine the factors associated with survival through an ambispective cohort  study.          Objectives    The primary objective of the study is to estimate the incidence of adverse outcomes  among paediatric and adult patients with Mucormycosis admitted in selected  tertiary care centres in India.          Methods     We propose to conduct  an ambispective cohort study with a one-year follow-up of mucormycosis patients  from the time of admission for management of the condition. The study will be  conducted among Mucormycosis patients being managed at selected  government/private tertiary care hospitals and medical colleges that provide  multidisciplinary treatment for Mucormycosis. The study is planned to commence  in the first week of July 2021. The tentative period for data collection is 14  months and the study is expected to be completed by September 2022. The study  population would comprise a cohort of individuals who are diagnosed with and  treated for Mucormycosis in the study hospitals. The sample size is calculated  to be 384. To account for a 20% non-response or loss to follow-up, the sample  size is increased to 480 eligible Mucormycosis patients.    An online data  capture module will be developed using REDCap (Research Electronic Data  Capture), a secure web application for building and managing online surveys and  databases.11 Data will be analysed using STATA 17 software (Stata  Corp, College Station, TX, USA). The findings of this study will be useful for  characterising the natural history of Mucormycosis in India. In addition, the  results will enable us to identify factors that are associated with mortality  among patients with mucormycosis. The findings may help clinicians to devise  optimal treatment strategies that will minimize adverse outcomes following  mucormycosis.      </t>
+  </si>
+  <si>
+    <t>CTRI/2021/08/036079 [Registered on: 31/08/2021] Trial Registered Prospectively</t>
+  </si>
+  <si>
+    <t>30/08/2021</t>
+  </si>
+  <si>
+    <t>Yes </t>
+  </si>
+  <si>
+    <t>Observational </t>
+  </si>
+  <si>
+    <t>Cross Sectional Study </t>
+  </si>
+  <si>
+    <t>Other </t>
+  </si>
+  <si>
+    <t>Functional health status of children with CP during COVID-19 pandemic </t>
+  </si>
+  <si>
+    <t>Parent-reported change in functional health status of children with cerebral palsy during COVID-19 pandemic:A cross-sectional study </t>
+  </si>
+  <si>
+    <t>FHS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            Name 
+            Nikhat Naaz 
+            Designation 
+            PG student 
+            Affiliation 
+            MS Ramaiah Medical College 
+            Address 
+            Department of Physiotherapy
+MS Ramaiah Nagar, MSRIT Post, Bangalore
+BangaloreKARNATAKA560054India 
+            Phone 
+            8197324719  
+            Fax 
+            Email 
+            nikinaaz98@gmail.com  
+     </t>
+  </si>
+  <si>
+    <t>Nikhat Naaz </t>
+  </si>
+  <si>
+    <t>PG student </t>
+  </si>
+  <si>
+    <t>MS Ramaiah Medical College </t>
+  </si>
+  <si>
+    <t>Department of Physiotherapy
+MS Ramaiah Nagar, MSRIT Post, Bangalore
+BangaloreKARNATAKA560054India </t>
+  </si>
+  <si>
+    <t>8197324719  </t>
+  </si>
+  <si>
+    <t>nikinaaz98@gmail.com  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            Name 
+            Dr Kirti Joshi 
+            Designation 
+            Assistant professor 
+            Affiliation 
+            MS Ramaiah Medical College 
+            Address 
+            MS Ramaiah Nagar, MSRIT Post, BangaloreBangaloreKARNATAKA560054India 
+            Phone 
+            9686851063  
+            Fax 
+            Email 
+            kirtijoshi@msrmc.ac.in  
+     </t>
+  </si>
+  <si>
+    <t>Dr Kirti Joshi </t>
+  </si>
+  <si>
+    <t>Assistant professor </t>
+  </si>
+  <si>
+    <t>MS Ramaiah Nagar, MSRIT Post, BangaloreBangaloreKARNATAKA560054India </t>
+  </si>
+  <si>
+    <t>9686851063  </t>
+  </si>
+  <si>
+    <t>kirtijoshi@msrmc.ac.in  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            Name 
+            Nikhat Naaz 
+            Designation 
+            PG student 
+            Affiliation 
+            MS Ramaiah Medical College 
+            Address 
+            Department of Physiotherapy,
+MS Ramaiah Nagar, MSRIT Post, Bangalore
+BangaloreKARNATAKA560054India 
+            Phone 
+            8197324719  
+            Fax 
+            Email 
+            nikinaaz98@gmail.com  
+     </t>
+  </si>
+  <si>
+    <t>Department of Physiotherapy,
+MS Ramaiah Nagar, MSRIT Post, Bangalore
+BangaloreKARNATAKA560054India </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            None 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            Name 
+            Nikhat Naaz 
+            Address 
+            MS Ramaiah Nagar, MSRIT Post,
+Bangalore 560054.                                                    
+            Type of Sponsor 
+                        Other [Self sponsorship] 
+     </t>
+  </si>
+  <si>
+    <t>MS Ramaiah Nagar, MSRIT Post,
+Bangalore 560054.                                                    
+ </t>
+  </si>
+  <si>
+    <t>Other [Self sponsorship] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Name 
+                Address 
+                NIL 
+                NIL 
+     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+           No of Sites = 1  
+        Name of Principal
+Investigator 
+        Name of Site 
+        Site Address 
+        Phone/Fax/Email 
+        Nikhat Naaz 
+        MS Ramaiah Medical College 
+        Department of Physiotherapy,
+MS Ramaiah Nagar, MSRIT Post,
+Bangalore 560054.                                                    
+BangaloreKARNATAKA 
+        8197324719nikinaaz98@gmail.com 
+     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+           No of Ethics Committees= 1  
+                Name of Committee 
+                Approval Status 
+                Institutional Ethics Committee Ramaiah Medical College 
+                Approved 
+     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Health Type 
+                Condition 
+    		Healthy Human Volunteers 
+    		Cerebral Palsy 
+     </t>
+  </si>
+  <si>
+    <t>Cerebral Palsy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Age From 
+                3.00 Year(s)
+                Age To 
+                17.00 Year(s)
+                Gender 
+                Both 
+                Details 
+                Parents should understand english 
+     </t>
+  </si>
+  <si>
+    <t>3.00 Year(s)</t>
+  </si>
+  <si>
+    <t>17.00 Year(s)</t>
+  </si>
+  <si>
+    <t>Parents should understand english </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Details 
+                Children with any major surgery/ major illiness requiring hospitilisation including COVID-19 infection 
+     </t>
+  </si>
+  <si>
+    <t>Children with any major surgery/ major illiness requiring hospitilisation including COVID-19 infection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Outcome 
+                TimePoints                 
+                Change in functional health status 
+                only once  
+     </t>
+  </si>
+  <si>
+    <t>only once  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Outcome 
+                TimePoints                 
+                none 
+                0 
+     </t>
+  </si>
+  <si>
+    <t>0 </t>
+  </si>
+  <si>
+    <t>Total Sample Size="96"Sample Size from India="96"  
+Final Enrollment numbers achieved (Total)= "Applicable only for Completed/Terminated trials"  
+Final Enrollment numbers achieved (India)="Applicable only for Completed/Terminated trials" </t>
+  </si>
+  <si>
+    <t>10/09/2021 </t>
+  </si>
+  <si>
+    <t>Would want to publish the study </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        Will individual participant data (IPD) be shared publicly (including data dictionaries)?  
+          Response - YES                 
+        What data in particular will be shared?
+                    Response - Individual participant data that underlie the results reported in this article, after de-identiï¬cation (text, tables, ï¬gures, and appendices).          	
+        What additional supporting information will be shared? 
+                                                               Response - None of the above                  
+        Who will be able to view these files?
+          Response - Anyone                              	
+        For what types of analyses will this data be available?
+         Response - Any purpose.                            	 
+        By what mechanism will data be made available?
+          	Response - Proposals should be directed to [nikinaaz98@gmail.com]. 
+        For how long will this data be available start date provided 01-01-2023 and end date provided 01-01-2026?
+          Response - Immediately following publication. No end date.                              	 
+        Any URL or additional information regarding plan/policy for sharing IPD? 
+          Additional Information - NIL
+</t>
+  </si>
+  <si>
+    <t>Background: The WHO declared coronavirus disease (COVID-19) as a pandemic on March  2020. Social distancing was promoted as the best  strategy to avoid transmission of   COVID-19. Staying at home and refraining from outdoor activities became  the advised policies. As a  consequence to restrictions, there has been an ongoing change in the pattern of  access to health and rehabilitation services in the country.Children with special needs are facing additional challenges,  brought about by the ongoing pandemic due to their unique health conditions.   Providing rehabilitation services  in a home environment is one of the major challenges in this pandemic period.   Most common challenges for telerehabilitation according to  recent studies were lack of acceptance of telehealth among stakeholders, lack  of knowledge and skills needed to use telerehabilitation, apprehensions related  to data privacy and cost effectiveness.    Need of the study: The restrictions placed have  impacted the contextual factors of the International Classification of  Functioning, Disability and Health (ICF) domain. This change is known to influence the body function, activity  and participation components of ICF.     It is essential to investigate the  changes in the functional health status of children with CP, as it will help physiotherapist  keep a track of the childâs physical status during the stay-at-home period in  this pandemic. It will also help rehab professionals design the present  home-based and future hospital-based rehab services better.    Hence, there is an emerging need  for home-based screening concerning body function, activity and participation  in children with CP during this pandemic. </t>
+  </si>
+  <si>
+    <t>CTRI/2021/09/036254 [Registered on: 06/09/2021] Trial Registered Prospectively</t>
+  </si>
+  <si>
+    <t>03/09/2021</t>
+  </si>
+  <si>
+    <t>Cohort Study </t>
+  </si>
+  <si>
+    <t>A study on the short and long term outcomes of patients diagnosed with a fungal disease called Mucormycosis (commonly known as Black Fungus) </t>
+  </si>
+  <si>
+    <t>Incidence of adverse outcomes and risk factors for mortality among Mucormycosis patients in India: a multi-centric ambispective cohort study, 2021-2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            Name 
+            Manickam Ponnaiah 
+            Designation 
+            Scientist E 
+            Affiliation 
+            ICMR - National Institute of Epidemiology 
+            Address 
+            Room Number 127, th floor,
+ICMR-NIE, R127, TNHB, Ayapakkam
+Chennai, Tamil Nadu  
+ChennaiTAMIL NADU600 077 India 
+            Phone 
+            9444030527  
+            Fax 
+            Email 
+            manickam@nie.gov.in  
+     </t>
+  </si>
+  <si>
+    <t>Manickam Ponnaiah </t>
+  </si>
+  <si>
+    <t>Scientist E </t>
+  </si>
+  <si>
+    <t>ICMR - National Institute of Epidemiology </t>
+  </si>
+  <si>
+    <t>Room Number 127, th floor,
+ICMR-NIE, R127, TNHB, Ayapakkam
+Chennai, Tamil Nadu  
+ChennaiTAMIL NADU600 077 India </t>
+  </si>
+  <si>
+    <t>9444030527  </t>
+  </si>
+  <si>
+    <t>manickam@nie.gov.in  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            Name 
+            Manickam Ponnaiah 
+            Designation 
+            Scientist E 
+            Affiliation 
+            ICMR - National Institute of Epidemiology 
+            Address 
+            Room Number 127, th floor,
+ICMR-NIE, R127, TNHB, Ayapakkam
+Chennai, Tamil Nadu  
+ChennaiTAMIL NADU600 077 India 
+            Phone 
+            9444030527  
+            Fax 
+            Email 
+            manickam@nie.gov.in  
+     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            Name 
+            Manickam Ponnaiah 
+            Designation 
+            Scientist E 
+            Affiliation 
+            ICMR - National Institute of Epidemiology 
+            Address 
+            Room Number 127, th floor,
+ICMR-NIE, R127, TNHB, Ayapakkam
+Chennai, Tamil Nadu  
+ChennaiTAMIL NADU600 077 India 
+            Phone 
+            9444030527  
+            Fax 
+            Email 
+            manickam@nie.gov.in  
+     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            NIL 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            Name 
+            Dr Manickam P 
+            Address 
+            Room number 417, th floor,
+ICMR-NIE, TNHB colony, Ayapakkam,
+Chennai 600 077 
+            Type of Sponsor 
+                        Other [Self] 
+     </t>
+  </si>
+  <si>
+    <t>Dr Manickam P </t>
+  </si>
+  <si>
+    <t>Room number 417, th floor,
+ICMR-NIE, TNHB colony, Ayapakkam,
+Chennai 600 077 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+           No of Sites = 29  
+        Name of Principal
+Investigator 
+        Name of Site 
+        Site Address 
+        Phone/Fax/Email 
+        Dr Parul Sharma 
+        (GMERS) Gujarat Medical Education &amp; Research Society Medical College 
+        Department of Community Medicine, Gujarat Medical Education &amp; Research Society Medical College 
+Gandhinag, New Building, Medical College, Civil Hospital Campus, Sector-1, Ahmedabad, Gujarat 382012AhmadabadGUJARAT 
+        7020375265paru_1sharma@yahoo.co.in 
+        Dr Vaibhav Saini 
+        AIIMS Bathinda 
+        Department of ENT, AIIMS Bathinda, Dabwali road, La singh nagar, Bathinda, PunjabBathindaPUNJAB 
+        8872377681drvaibhavsaini@gmail.com 
+        Dr Pradipta Kumar Parida  
+        AIIMS Bhubaneswar 
+        Department of ENT, AIIMS Bhubaneswar, Sijua, Patrapada, Bhubaneswar, Odisha 751019KhordhaORISSA 
+        9438884165ent_pradipta@aiimsbhubaneswar.edu.in 
+        Dr Satish 
+        AIIMS Raipur 
+        Department of Community and Family Medicine,
+AIIMS Raipur,
+Gate no 1, Great Eastern Rd, opposite Gurudwara, AIIMS campus, Tatibandh, Raipur, ChhattisgarhRaipurCHHATTISGARH 
+        8518887661drsatish3s@gmail.com 
+        Dr Amit Kumar Tyagi 
+        AIIMS Rishikesh 
+        Department of ENT, AIIMS Rishikesh, Virbhadra Road, Rishikesh, Uttarakhand 249203DehradunUTTARANCHAL 
+        9791731641ashuu.06@gmail.com 
+        Dr Suresh Kumar D 
+        Apollo Hospitals 
+        Department of Infectious Diseases, Apollo Hosptials,
+21, Greams Lane, Off Greams Road, Chennai, Tamil Nadu 600006 ChennaiTAMIL NADU 
+        8939130284dskinfdis@gmail.com 
+        Dr Bhagirathsinh D Pamar 
+        C U Shah Medical College and Hospital 
+        Department of ENT, C U Shah Medical College and Hospital, Dudhrej Road, Near Railway Station, Surendranagar, Gujarat 363001SurendranagarGUJARAT 
+        9408688505drbhagirath89@gmail.com 
+        Dr Kajal Srivastava 
+        D.Y Patil Medical College 
+        Department of Community Medicine, D.Y Patil Medical College,Line Bazar, Kasaba Bawada, Kolhapur, Maharashtra 416006
+PuneMAHARASHTRA 
+        8407966576kajal.spm@gmail.com 
+        Dr Sunil 
+        Dr. Vasantrao Pawar Medical College, Hospital &amp; Research Centre 
+        Department of Community Medicine, Dr. Vasantrao Pawar Medical College, Hospital &amp; Research Centre, Adgaon, Nashik, Maharashtra 422003NashikMAHARASHTRA 
+        8424017937sunil1986panigrahi@gmail.com 
+        Dr Surendra Babu 
+        Employees State Insurance Corporation 
+        Department of Community medicine, Employees State Insurance Corporation, Opposite Esi Bus Stop, Sanath Nagar, Erragadda, Bk Guda, Hyderabad, Telangana 500038HyderabadTELANGANA 
+        9989967110surya.doc.2@gmail.com 
+        Dr Simmi Dube 
+        Gandhi Medical College, Bhopal 
+        Department of Medicine, Gandhi Medical College,
+Sultania Road, Bhopal, Madhya Pradesh 462001BhopalMADHYA PRADESH 
+        9479554822simmi33@gmail.com 
+        Dr Niharika 
+        Government Medical College, Anantapur 
+        Department of Community Medicine,Government Medical College, Anantapur, Opp. EE, R&amp;B Office, Sainagar, Anantapur, Andhra Pradesh 515001AnantapurANDHRA PRADESH 
+        9494235215dr.niharika2008@gmail.com 
+        Dr Rahul Kumar Bagla  
+        Govt Institute Of Medical Sciences, Noida 
+        Department of ENT, Govt Institute Of Medical Sciences,Gautam Buddh Nagar, Greater Noida, Uttar Pradesh 201310Gautam Buddha NagarUTTAR PRADESH 
+        9899973789msrahulbagla@gmail.com 
+        Dr Renuka S Melkundi 
+        Gulbarga Institute Of Medical Sciences Kalaburgi 
+        Department of ENT, Gulbarga Institute Of Medical Sciences Kalaburgi, District Hospital, Sedam Road, Kalaburagi, Gulbarga, Karnataka
+GulbargaKARNATAKA 
+        9886175800entgims4@gmail.com 
+        Dr Anjan Jyothi Talukdar 
+        Guwahati Medical College &amp; Hospital  
+        Department of Medicine, Guwahati Medical College &amp; Hospital, 
+Bhangagarh, Guwahati, Assam 781032KamrupASSAM 
+        9954658926dranjan_t@yahoo.co.in 
+        Dr Gaurav 
+        Healthcare Global Private Limited 
+        Department of Skull base surgery,Healthcare Global Private Limited,HCG Towers, No. 8 P. Kalinga Rao Road, Sampangi Ram Nagar Bangalore - 560027BangaloreKARNATAKA 
+        9980675996gauravsmedikeri@gmail.com 
+        Dr Praveen Kulkarni  
+        JSS Medical College 
+        Department of Community Medicine, JSS Medical College,
+Sri Shivarathreeshwara Nagara, Mysuru, Karnataka 570015MysoreKARNATAKA 
+        9008926878praveenkulkarni@jssuni.edu.in 
+        Dr Puhalenthi 
+        K.A.P.Viswanatham Government Medical College 
+        Department of Community Medicine, K.A.P.Viswanatham Government Medical College Periyamilaguparai, Colletors Office Road, Tiruchirappalli, Tamil Nadu 620001TiruchirappalliTAMIL NADU 
+        9995935978picassopuhal@gmail.com 
+        Dr Subhashree 
+        Kasturba Medical College, Mangalore 
+        Department of Community Medicine, Kasturba Medical College, Mangalore, Ambedkar (Jyothi) Circle, Mangaluru, Karnataka 575001Dakshina KannadaKARNATAKA 
+        8892692511shubha.jahagirdar@gmail.com 
+        Dr Devaraja 
+        Kasturba Medical College, Manipal 
+        Department of ENT, Kasturba Medical College, Manipal, Madav Nagar, Udipi, Karnataka 576104UdupiKARNATAKA 
+        9999662597devaraja.k@manipal.edu 
+        Dr Seetharaman 
+        Kovai Medical Centre and Hospital 
+        Department of Community medicine, Kovai Medical Centre and Hospital, 3209, Avanashi Road, Coimbatore, Tamil Nadu 641014CoimbatoreTAMIL NADU 
+        9791051801seethahere@gmail.com 
+        Dr Priya 
+        Madurai Medical College 
+        Department of Community Medicine, Madurai Medical College, Medical College Road, Madurai, Tamil Nadu 625020MaduraiTAMIL NADU 
+        9865230654drpriyagsh@gmail.com 
+        Dr Nandini 
+        Medical College and Hospital, Kolkata 
+        Department of Pathology,
+Medical College and Hospital, Kolkata, 88 College Street, Kolkata, West Bengal 700 073KolkataWEST BENGAL 
+        9681992794nandini1004@gmail.com 
+        Dr Karthikeyan 
+        PSG Institute of Medical Sciences &amp; Research 
+        Department of Community Medicine, PSG Institute of Medical Sciences &amp; Research, Off Avanashi Road, Peelamedu, Coimbatore, Tamil Nadu 641004CoimbatoreTAMIL NADU 
+        9944038388karthikmsdr@gmail.com 
+        Dr Pushpa S Patel  
+        SDM College of Medical Sciences and Hospital 
+        Department of Community Medicine, SDM College of Medical Sciences and Hospital, Manjushree nagar, Sattur, Dharwad, Karnataka 580009DharwadKARNATAKA 
+        9448967691patilpushpa@hotmail.com 
+        Dr Prasanna 
+        Sri Ramachandra Medical College and Research Institute 
+        Department of ENT, Sri Ramachandra Medical College and Research Institute, No 1, Ayyappanthangal Road, Porur, Opposite Kfc, Ramachandra Nagar, Chennai, Tamil Nadu 600116 ChennaiTAMIL NADU 
+        9444413094sprasannakumar10@gmail.com 
+        Dr D Ramesh 
+        Sundaram Medical Foundation 
+        Department of ENT, Sundaram Medical Foundation, 9C, IV Avenue, Shanthi Colony, Anna Nagar, Chennai, Tamil Nadu 600040 ChennaiTAMIL NADU 
+        9940525277dr.d.ramesh16@gmail.com 
+        Dr Aditya Moorthy  
+        Trustwell Hospitals 
+        Department of Oral and Maxillofacial Surgery, Trustwell Hospitals, No 5, Chandrika Tower, Jc Road, Bengaluru, Karnataka 560002
+BangaloreKARNATAKA 
+        9886332302dradimoorthy@gmail.com 
+        Dr Parameshwar Satpathy 
+        Veer Surendra Sai Institute of Medical Sciences and Research 
+        Department of Community Medicine,Veer Surendra Sai Institute of Medical Sciences and Research, 
+Burla, Sambalpur, Odisha 768017SambalpurORISSA 
+        9021384865drparamsatpathy@gmail.com 
+     </t>
+  </si>
+  <si>
+    <t>(GMERS) Gujarat Medical Education &amp; Research Society Medical College </t>
+  </si>
+  <si>
+    <t>AIIMS Bathinda </t>
+  </si>
+  <si>
+    <t>AIIMS Bhubaneswar </t>
+  </si>
+  <si>
+    <t>AIIMS Raipur </t>
+  </si>
+  <si>
+    <t>AIIMS Rishikesh </t>
+  </si>
+  <si>
+    <t>Apollo Hospitals </t>
+  </si>
+  <si>
+    <t>C U Shah Medical College and Hospital </t>
+  </si>
+  <si>
+    <t>D.Y Patil Medical College </t>
+  </si>
+  <si>
+    <t>Dr. Vasantrao Pawar Medical College, Hospital &amp; Research Centre </t>
+  </si>
+  <si>
+    <t>Employees State Insurance Corporation </t>
+  </si>
+  <si>
+    <t>Gandhi Medical College, Bhopal </t>
+  </si>
+  <si>
+    <t>Government Medical College, Anantapur </t>
+  </si>
+  <si>
+    <t>Govt Institute Of Medical Sciences, Noida </t>
+  </si>
+  <si>
+    <t>Gulbarga Institute Of Medical Sciences Kalaburgi </t>
+  </si>
+  <si>
+    <t>Guwahati Medical College &amp; Hospital  </t>
+  </si>
+  <si>
+    <t>Healthcare Global Private Limited </t>
+  </si>
+  <si>
+    <t>JSS Medical College </t>
+  </si>
+  <si>
+    <t>K.A.P.Viswanatham Government Medical College </t>
+  </si>
+  <si>
+    <t>Kasturba Medical College, Mangalore </t>
+  </si>
+  <si>
+    <t>Kasturba Medical College, Manipal </t>
+  </si>
+  <si>
+    <t>Kovai Medical Centre and Hospital </t>
+  </si>
+  <si>
+    <t>Madurai Medical College </t>
+  </si>
+  <si>
+    <t>Medical College and Hospital, Kolkata </t>
+  </si>
+  <si>
+    <t>PSG Institute of Medical Sciences &amp; Research </t>
+  </si>
+  <si>
+    <t>SDM College of Medical Sciences and Hospital </t>
+  </si>
+  <si>
+    <t>Sri Ramachandra Medical College and Research Institute </t>
+  </si>
+  <si>
+    <t>Sundaram Medical Foundation </t>
+  </si>
+  <si>
+    <t>Trustwell Hospitals </t>
+  </si>
+  <si>
+    <t>Veer Surendra Sai Institute of Medical Sciences and Research </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+           No of Ethics Committees= 30  
+                Name of Committee 
+                Approval Status 
+                All India Institute of Medical Sciences, Bathinda 
+                Submittted/Under Review 
+                All India Institute of Medical Sciences, Bhubaneswar 
+                Submittted/Under Review 
+                All India Institute of Medical Sciences, Raipur 
+                Approved 
+                All India Institute of Medical Sciences, Rishikesh 
+                Submittted/Under Review 
+                Apollo Hospitals  
+                Submittted/Under Review 
+                C U Shah Medical College 
+                Approved 
+                Dr Vasantrao Pawar Medical College, Hospital and Research Centre, Nashik 
+                Approved 
+                Dr. D. Y. Patil Medical College, Hospital &amp; Research Centre 
+                Submittted/Under Review 
+                Employees State Insurance Corporation 
+                Submittted/Under Review 
+                Gandhi Medical College, Bhopal 
+                Approved 
+                Gauhati Medical College and Hospital 
+                Approved 
+                GMERS Medical College and Hospital 
+                Approved 
+                Government Institute of Medical Sciences, Noida 
+                Submittted/Under Review 
+                Government Medical College, Anantapur 
+                Approved 
+                Gulbarga Institute of Medical Sciences, Kalaburagi 
+                Approved 
+                Healthcare Global Pvt Lmtd, Bangalore 
+                Submittted/Under Review 
+                ICMR - National Institute of Epidemiology 
+                Approved 
+                JSS Medical College 
+                Approved 
+                K.A.P.Viswanatham Government Medical College 
+                Submittted/Under Review 
+                Kasturba Medica; College, Manipal 
+                Approved 
+                Kasturba Medical College, Mangalore  
+                Approved 
+                KMCH Institute of Health Sciences and Research  
+                Approved 
+                Madurai Medical College 
+                Submittted/Under Review 
+                Medical College and Hospital, Kolkata 
+                Approved 
+                PSG Institute of Medical Sciences and Research  
+                Approved 
+                SDM College of Medical Sciences and Hospital 
+                Approved 
+                Sri Ramachandra Institute of Higher Education and Research 
+                Approved 
+                Sundaram Medical Foundation 
+                Approved 
+                Trustwell Hospitals  
+                Submittted/Under Review 
+                Veer Surendra Sai Institute of Medical Sciences and Research 
+                Submittted/Under Review 
+     </t>
   </si>
 </sst>
 </file>
@@ -186,11 +1434,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -226,8 +1474,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -250,59 +1536,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -310,47 +1543,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,6 +1559,60 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,7 +1633,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,13 +1669,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,13 +1711,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,37 +1765,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,43 +1789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,43 +1801,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,11 +1827,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,35 +1868,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,6 +1886,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,157 +1916,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -829,7 +2077,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1090,13 +2338,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BC3"/>
+  <dimension ref="A1:EM4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="62.25" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -1299,68 +2547,1124 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:55">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="5"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2" s="5"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
+    <row r="2" customHeight="1" spans="1:143">
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>124</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>125</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>128</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>129</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>130</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>132</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>98</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>98</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>99</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>135</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>101</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>136</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>137</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>104</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>138</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>139</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>140</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>142</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>143</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>129</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>129</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>129</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>144</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>118</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>145</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>146</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>118</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>145</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>145</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>147</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>148</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>149</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>126</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>127</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>126</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>150</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>129</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>130</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>151</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="3" customHeight="1" spans="38:43">
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AQ3" s="3"/>
+    <row r="3" customHeight="1" spans="1:85">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R3" t="s">
+        <v>167</v>
+      </c>
+      <c r="S3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" t="s">
+        <v>168</v>
+      </c>
+      <c r="U3" t="s">
+        <v>169</v>
+      </c>
+      <c r="V3" t="s">
+        <v>170</v>
+      </c>
+      <c r="W3" t="s">
+        <v>171</v>
+      </c>
+      <c r="X3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>185</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>189</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>190</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>191</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>193</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>194</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>195</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>196</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>129</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>198</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>199</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:143">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="s">
+        <v>206</v>
+      </c>
+      <c r="N4" t="s">
+        <v>207</v>
+      </c>
+      <c r="O4" t="s">
+        <v>208</v>
+      </c>
+      <c r="P4" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>210</v>
+      </c>
+      <c r="R4" t="s">
+        <v>211</v>
+      </c>
+      <c r="S4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T4" t="s">
+        <v>212</v>
+      </c>
+      <c r="U4" t="s">
+        <v>213</v>
+      </c>
+      <c r="V4" t="s">
+        <v>207</v>
+      </c>
+      <c r="W4" t="s">
+        <v>208</v>
+      </c>
+      <c r="X4" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>224</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>225</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>226</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>227</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>231</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>232</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>234</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>235</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>236</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>237</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>238</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>239</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>241</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>242</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>243</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>244</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>245</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>246</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>247</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>248</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>249</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>134</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>134</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>134</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>134</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>134</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>134</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>134</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>134</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>134</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>134</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>98</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>98</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>134</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>134</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>99</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>135</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>101</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>136</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>137</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>104</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>138</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>139</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>140</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>110</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>142</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>129</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>129</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>129</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>144</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>145</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>146</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>118</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>145</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>145</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>147</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>148</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>149</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>126</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>127</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>126</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>150</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>129</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>130</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>66</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>151</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
